--- a/config/Scope_Copy.xlsx
+++ b/config/Scope_Copy.xlsx
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="19">
-        <v>3.0</v>
+        <v>120.0</v>
       </c>
       <c r="D2" s="19">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="19">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="7">
         <v>82.0</v>

--- a/config/Scope_Copy.xlsx
+++ b/config/Scope_Copy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Report_GameName</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
   <si>
     <t>FLow</t>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Xác định thêm end game sẽ phân biệt dễ hơn chuyển act hay end game</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Report_Chunking1Speaking(Clone)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -651,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -677,13 +680,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -711,38 +717,67 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+      <c r="A5" t="s" s="0">
+        <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -782,63 +817,63 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19">
         <v>120.0</v>
       </c>
       <c r="D2" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="19">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
-      <c r="F2" s="7">
-        <v>82.0</v>
+      <c r="F2" s="8" t="n">
+        <v>3.0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="20" t="n">
         <v>0.0</v>
@@ -883,13 +918,13 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -916,13 +951,13 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -949,13 +984,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -982,11 +1017,11 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1013,7 +1048,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1042,7 +1077,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1071,7 +1106,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1100,7 +1135,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -7659,16 +7694,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -7676,14 +7711,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="27">
         <v>1.0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7709,12 +7746,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
